--- a/data/sector_correlations/2018_intra.xlsx
+++ b/data/sector_correlations/2018_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,521 +448,471 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(23)</t>
+          <t>Containers &amp; Packaging(12)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6283387341245661</v>
+        <v>0.7001438813779158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(34)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6253370047779598</v>
+        <v>0.6293722548865807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Containers &amp; Packaging(14)</t>
+          <t>Energy Equipment &amp; Services(32)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5943005631807237</v>
+        <v>0.6276908157365403</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Blank Check / SPAC(32)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5588803672010455</v>
+        <v>0.5813759527450517</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Building Products(27)</t>
+          <t>Building Products(23)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5534060486367837</v>
+        <v>0.5665676050609382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Multi-Utilities(19)</t>
+          <t>Airlines(14)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5433555237308213</v>
+        <v>0.5044110339867112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Automobiles(9)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.512756070299573</v>
+        <v>0.4932196026268766</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail(19)</t>
+          <t>Machinery(85)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5038219746373586</v>
+        <v>0.4888186444504815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Machinery(93)</t>
+          <t>Internet &amp; Direct Marketing Retail(15)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4998666484373399</v>
+        <v>0.4756808738508365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Airlines(15)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4940621978744636</v>
+        <v>0.4577437672919444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(23)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4788993969200717</v>
+        <v>0.4499771060762254</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(20)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4603962067708081</v>
+        <v>0.4484509301746201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Consumer Finance(23)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4578946256351588</v>
+        <v>0.4397621169210953</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(28)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4521737941230493</v>
+        <v>0.4372359952101255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(75)</t>
+          <t>Consumer Finance(15)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4425794013709572</v>
+        <v>0.4372342122136115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shell Companies(18)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4415445142718495</v>
+        <v>0.4338248876960353</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development(28)</t>
+          <t>Leisure Products(11)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4381166495242216</v>
+        <v>0.4237333247381553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4372359952101255</v>
+        <v>0.4227163602566927</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Electrical Equipment(31)</t>
+          <t>Household Products(10)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4368302642751359</v>
+        <v>0.4055378415224902</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Banks(271)</t>
+          <t>Real Estate Management &amp; Development(22)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4298601732788728</v>
+        <v>0.39762561155322</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Software-Application(13)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4298535871417488</v>
+        <v>0.3698598457037373</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Household Products(10)</t>
+          <t>Air Freight &amp; Logistics(11)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4055378415224902</v>
+        <v>0.3677915872076659</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics(12)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3977606321242783</v>
+        <v>0.3534335435368156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Leisure Products(12)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3876848300330209</v>
+        <v>0.3426805157079772</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Gas Utilities(13)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.383888108974154</v>
+        <v>0.3391849322854577</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chemicals(55)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3737694356206474</v>
+        <v>0.3308361528058588</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Health Care Technology(12)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3691124683003569</v>
+        <v>0.3306190728028508</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IT Services(58)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3646497570875382</v>
+        <v>0.326760669788997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(128)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3645690247123041</v>
+        <v>0.324950483858519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(54)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3588302064028457</v>
+        <v>0.3211408690304468</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(57)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3524947421623792</v>
+        <v>0.3181525400969379</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Capital Markets(87)</t>
+          <t>Beverages(21)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3499925216525376</v>
+        <v>0.3127055360960744</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(48)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.349354722647444</v>
+        <v>0.3087510583339029</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Software(70)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3339419268167839</v>
+        <v>0.3024132463637215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Household Durables(43)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3316812219912439</v>
+        <v>0.2985858803840739</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(43)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3300014308348602</v>
+        <v>0.2939761905456659</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Professional Services(38)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3256434321667762</v>
+        <v>0.2834946746149619</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(52)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3128524581315911</v>
+        <v>0.2794280827201666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Beverages(22)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3095510845584591</v>
+        <v>0.2730344860293868</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Insurance(80)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3075470807470837</v>
+        <v>0.2677485921181879</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Biotechnology(163)</t>
+          <t>Biotechnology(126)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2893290902484083</v>
+        <v>0.24546180325089</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Electric Utilities(29)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.286748432654657</v>
+        <v>0.243965935247877</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(30)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2784473736188541</v>
+        <v>0.2372918794920321</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(87)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2767154678821401</v>
+        <v>0.2308892914139308</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Marine(16)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2745951526188523</v>
+        <v>0.2240830577663852</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Food Products(47)</t>
+          <t>Entertainment(22)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2631534322766447</v>
+        <v>0.2067035958370407</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Entertainment(26)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2553383578539335</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Communications Equipment(50)</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.2529174936489305</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Metals &amp; Mining(95)</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.24551398721855</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Specialty Retail(63)</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.2389906636744377</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Media(47)</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.233695517057521</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals(56)</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.2194215633778359</v>
+        <v>0.1815443032280717</v>
       </c>
     </row>
   </sheetData>

--- a/data/sector_correlations/2018_intra.xlsx
+++ b/data/sector_correlations/2018_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,420 +498,430 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Airlines(14)</t>
+          <t>No Sector(375)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5044110339867112</v>
+        <v>0.5625990206183534</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(19)</t>
+          <t>Airlines(14)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4932196026268766</v>
+        <v>0.5044110339867112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Machinery(85)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4888186444504815</v>
+        <v>0.4932196026268766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail(15)</t>
+          <t>Machinery(85)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4756808738508365</v>
+        <v>0.4888186444504815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(25)</t>
+          <t>Internet &amp; Direct Marketing Retail(15)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4577437672919444</v>
+        <v>0.4756808738508365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4499771060762254</v>
+        <v>0.4577437672919444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gas Utilities(12)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4484509301746201</v>
+        <v>0.4499771060762254</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4397621169210953</v>
+        <v>0.4484509301746201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4372359952101255</v>
+        <v>0.4397621169210953</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Consumer Finance(15)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4372342122136115</v>
+        <v>0.4372359952101255</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Consumer Finance(15)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4338248876960353</v>
+        <v>0.4372342122136115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Leisure Products(11)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4237333247381553</v>
+        <v>0.4338248876960353</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Electrical Equipment(28)</t>
+          <t>Leisure Products(11)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4227163602566927</v>
+        <v>0.4237333247381553</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Household Products(10)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4055378415224902</v>
+        <v>0.4227163602566927</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development(22)</t>
+          <t>Household Products(10)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.39762561155322</v>
+        <v>0.4055378415224902</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>Real Estate Management &amp; Development(22)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3698598457037373</v>
+        <v>0.39762561155322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics(11)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3677915872076659</v>
+        <v>0.3698598457037373</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Air Freight &amp; Logistics(11)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3534335435368156</v>
+        <v>0.3677915872076659</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3426805157079772</v>
+        <v>0.3534335435368156</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3391849322854577</v>
+        <v>0.3426805157079772</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3308361528058588</v>
+        <v>0.3391849322854577</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3306190728028508</v>
+        <v>0.3308361528058588</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.326760669788997</v>
+        <v>0.3306190728028508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Electric Utilities(28)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.324950483858519</v>
+        <v>0.326760669788997</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3211408690304468</v>
+        <v>0.324950483858519</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3181525400969379</v>
+        <v>0.3211408690304468</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Beverages(21)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3127055360960744</v>
+        <v>0.3181525400969379</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Beverages(21)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3087510583339029</v>
+        <v>0.3127055360960744</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Insurance(75)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3024132463637215</v>
+        <v>0.3087510583339029</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2985858803840739</v>
+        <v>0.3024132463637215</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2939761905456659</v>
+        <v>0.2985858803840739</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Marine(15)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2834946746149619</v>
+        <v>0.2939761905456659</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2794280827201666</v>
+        <v>0.2834946746149619</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2730344860293868</v>
+        <v>0.2794280827201666</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2677485921181879</v>
+        <v>0.2730344860293868</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.24546180325089</v>
+        <v>0.2677485921181879</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Biotechnology(126)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.243965935247877</v>
+        <v>0.24546180325089</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2372918794920321</v>
+        <v>0.243965935247877</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Communications Equipment(45)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2308892914139308</v>
+        <v>0.2372918794920321</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2240830577663852</v>
+        <v>0.2308892914139308</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Entertainment(22)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2067035958370407</v>
+        <v>0.2240830577663852</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Entertainment(22)</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.2067035958370407</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>Pharmaceuticals(48)</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>0.1815443032280717</v>
       </c>
     </row>

--- a/data/sector_correlations/2018_intra.xlsx
+++ b/data/sector_correlations/2018_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,471 +458,511 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(22)</t>
+          <t>Mortgage Real Estate Investment Trust...(16)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6293722548865807</v>
+        <v>0.6904882631932447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(32)</t>
+          <t>Equity Real Estate Investment Trusts ...(98)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6276908157365403</v>
+        <v>0.6398474642353622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Multi-Utilities(18)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5813759527450517</v>
+        <v>0.6293722548865807</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Building Products(23)</t>
+          <t>ETF(303)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5665676050609382</v>
+        <v>0.6139360250295423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>No Sector(375)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5625990206183534</v>
+        <v>0.5813759527450517</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Airlines(14)</t>
+          <t>Energy Equipment &amp; Services(38)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5044110339867112</v>
+        <v>0.561435902338057</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(19)</t>
+          <t>Building Products(24)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4932196026268766</v>
+        <v>0.5595365801594221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Machinery(85)</t>
+          <t>Airlines(14)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4888186444504815</v>
+        <v>0.5044110339867112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail(15)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4756808738508365</v>
+        <v>0.4932196026268766</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(25)</t>
+          <t>Machinery(86)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4577437672919444</v>
+        <v>0.4899199090905587</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Internet &amp; Direct Marketing Retail(15)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4499771060762254</v>
+        <v>0.4756808738508365</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gas Utilities(12)</t>
+          <t>Construction &amp; Engineering(21)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4484509301746201</v>
+        <v>0.4678149584645998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4397621169210953</v>
+        <v>0.4577437672919444</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4372359952101255</v>
+        <v>0.4484509301746201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Consumer Finance(15)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(70)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4372342122136115</v>
+        <v>0.4414651210783485</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4338248876960353</v>
+        <v>0.4372359952101255</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Leisure Products(11)</t>
+          <t>Consumer Finance(15)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4237333247381553</v>
+        <v>0.4372342122136115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Electrical Equipment(28)</t>
+          <t>Banks(251)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4227163602566927</v>
+        <v>0.4284718710030003</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Household Products(10)</t>
+          <t>Leisure Products(11)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4055378415224902</v>
+        <v>0.4237333247381553</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development(22)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.39762561155322</v>
+        <v>0.4227163602566927</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>Household Products(10)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3698598457037373</v>
+        <v>0.4055378415224902</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics(11)</t>
+          <t>Real Estate Management &amp; Development(23)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3677915872076659</v>
+        <v>0.3834147971440759</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Chemicals(52)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3534335435368156</v>
+        <v>0.3687769932485391</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Air Freight &amp; Logistics(11)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3426805157079772</v>
+        <v>0.3677915872076659</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(125)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3391849322854577</v>
+        <v>0.3563361837970567</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Technology Hardware, Storage &amp; Periph...(19)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3308361528058588</v>
+        <v>0.3543194975450485</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3306190728028508</v>
+        <v>0.3391849322854577</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Electronic Equipment, Instruments &amp; C...(78)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.326760669788997</v>
+        <v>0.3379169324604882</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Electric Utilities(28)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.324950483858519</v>
+        <v>0.3308361528058588</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Software(70)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3211408690304468</v>
+        <v>0.3287416546126967</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Health Care Providers &amp; Services(47)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3181525400969379</v>
+        <v>0.326154717829893</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Beverages(21)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3127055360960744</v>
+        <v>0.324950483858519</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Hotels, Restaurants &amp; Leisure(51)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3087510583339029</v>
+        <v>0.324600144318076</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Insurance(75)</t>
+          <t>Capital Markets(76)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3024132463637215</v>
+        <v>0.3204853498788125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2985858803840739</v>
+        <v>0.3181525400969379</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Beverages(21)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2939761905456659</v>
+        <v>0.3127055360960744</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Marine(15)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2834946746149619</v>
+        <v>0.3087510583339029</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2794280827201666</v>
+        <v>0.3024132463637215</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2730344860293868</v>
+        <v>0.2985858803840739</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2677485921181879</v>
+        <v>0.2939761905456659</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.24546180325089</v>
+        <v>0.2834946746149619</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.243965935247877</v>
+        <v>0.2794280827201666</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Health Care Equipment &amp; Supplies(86)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2372918794920321</v>
+        <v>0.2756420031878652</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Communications Equipment(45)</t>
+          <t>Metals &amp; Mining(106)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2308892914139308</v>
+        <v>0.2571860721523278</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Food Products(46)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2240830577663852</v>
+        <v>0.2520102537249483</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Entertainment(22)</t>
+          <t>Biotechnology(128)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2067035958370407</v>
+        <v>0.2425934687722011</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1815443032280717</v>
+        <v>0.2372918794920321</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Communications Equipment(45)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.2308892914139308</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Specialty Retail(59)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2129698478940226</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Entertainment(22)</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.2067035958370407</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals(53)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1629597184251727</v>
       </c>
     </row>
   </sheetData>
